--- a/datos/datos_funa_politicos.xlsx
+++ b/datos/datos_funa_politicos.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bolea/Documents/Otros/funa_politicos/datos/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0156A15A-1685-3846-BE80-F7E0BE943BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34840" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
-  <si>
-    <t>Tabla 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="104">
   <si>
     <t>Nombre</t>
   </si>
@@ -78,10 +84,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.fastcheck.cl/2026/02/17/en-su-declaracion-de-intereses-proximo-subsecretario-de-seguridad-ha-omitido-sociedades-durante-cinco-anos/</t>
     </r>
@@ -89,30 +96,26 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.latercera.com/nacional/noticia/las-sociedades-que-unen-al-futuro-subsecretario-de-seguridad-con-imputados-del-caso-tragamonedas-y-casas-de-apuesta-online/</t>
     </r>
   </si>
   <si>
-    <t>Vínculos con imputado por caso Tragamonedas</t>
-  </si>
-  <si>
     <t>asociación</t>
-  </si>
-  <si>
-    <t>"El actual diputado de Amarillos tiene sociedades con Emilio Yang -quien ha sido vinculado a la futura senadora Karol Cariola- y también con Alberto Hadad, representante del gremio de empresarios de tragamoneas y quien fue formalizado en 2019." (CNN)</t>
   </si>
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.cnnchile.com/pais/revelan-vinculo-en-sociedad-de-futuro-subsecretario-de-seguridad-de-kast-con-imputado-por-caso-tragamonedas_20260211/</t>
     </r>
@@ -135,10 +138,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>https://contrapoderchile.cl/registro-del-congreso-revela-que-diputada-camila-flores-oficio-al-conservador-de-bienes-raices-para-acelerar-tramite-a-favor-de-su-madre/</t>
     </r>
@@ -161,10 +165,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.ciperchile.cl/2025/11/22/este-es-el-informe-del-os-7-que-transcribe-la-llamada-en-que-yaber-dijo-que-le-entrego-17-millones-al-diputado-araya-1/</t>
     </r>
@@ -190,10 +195,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.cnnchile.com/pais/multa-de-mas-de-500-millones-a-exgerente-general-de-cencosud-compro-acciones-con-informacion-privilegiada_20260216/</t>
     </r>
@@ -201,10 +207,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>https://elcontraste.cl/nacional/2026/02/16/corte-suprema-ratifica-multa-de-casi-600-millones-de-pesos-a-exgerente-general-de-cencosud-por-delito-economico/</t>
     </r>
@@ -227,10 +234,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.t13.cl/noticia/politica/de-parcelas-puerto-varas-buin-hasta-colegio-estos-son-patrimonios-jose-antonio-9-2-2026</t>
     </r>
@@ -247,10 +255,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>https://contrapoderchile.cl/mas-de-60-millones-anuales-registro-de-la-dipreca-revela-que-diputado-electo-enrique-bassaletti-recibe-doble-pension-como-exgeneral/</t>
     </r>
@@ -273,10 +282,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.elmostrador.cl/noticias/sin-editar/2026/02/08/futuro-subsecretario-de-interior-defendio-residencia-para-microtraficante-colombiano/</t>
     </r>
@@ -284,10 +294,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>https://reportea.cl/2026/02/06/las-causas-en-que-maximo-pavez-represento-a-migrantes-con-condenas-por-trafico-de-drogas-y-porte-ilicito-de-armas/</t>
     </r>
@@ -313,10 +324,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.fastcheck.cl/2026/02/05/condenan-al-exjefe-de-atencion-primaria-de-pinera-por-fraude-con-las-residencias-sanitarias-durante-la-pandemia/</t>
     </r>
@@ -339,10 +351,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>https://reportea.cl/2026/01/29/robo-fake-en-la-suprema-exministra-letelier-simulo-un-asalto-para-no-entregar-su-celular-en-causa-por-trafico-de-influencias/</t>
     </r>
@@ -362,10 +375,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.theclinic.cl/2026/01/28/tenia-dos-sueldos-de-27-y-24-millones-y-ni-siquiera-estaba-titulado-contraloria-constata-irregularidad-en-contratacion-de-jefe-de-gabinete-de-la-reina/</t>
     </r>
@@ -388,10 +402,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.ciperchile.cl/2016/02/10/la-lista-de-roberto-carrasco-el-otro-garganta-profunda-de-las-platas-negras-de-la-politica/</t>
     </r>
@@ -408,10 +423,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.adnradio.cl/2026/01/24/ivan-poduje-enfrenta-demanda-del-cde-por-presuntamente-no-cumplir-requisitos-para-integrar-el-consejo-del-mop-en-2020/</t>
     </r>
@@ -431,10 +447,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.fastcheck.cl/2026/01/26/asi-operan-los-perfiles-falsos-dedicados-a-defender-al-diputado-calisto-en-facebook/</t>
     </r>
@@ -442,45 +459,75 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.fastcheck.cl/2026/01/25/pago-lo-que-sea-chats-revelan-que-diputado-calisto-ordeno-crear-cuentas-falsas-en-facebook-para-neutralizar-detractores/</t>
     </r>
+  </si>
+  <si>
+    <t>https://radio.uchile.cl/2026/02/18/polla-chilena-presenta-querella-contra-exsocio-del-futuro-subsecretario-de-seguridad-por-asociacion-criminal-y-lavado-de-activos/</t>
+  </si>
+  <si>
+    <t>"El Cuarto Juzgado de Garantía de Santiago declaró admisible una querella presentada por Polla Chilena de Beneficencia contra Sebastián Salazar, exsocio del futuro subsecretario de Seguridad, Andrés Jouannet, quien ha sido cuestionado por sus vínculos comerciales con personas procesadas por delitos económicos." (Diario UChile)</t>
+  </si>
+  <si>
+    <t>Vínculo directo con exsocio acusado de asociación criminal y lavado de activos</t>
+  </si>
+  <si>
+    <t>Alfonso Vargas</t>
+  </si>
+  <si>
+    <t>RN</t>
+  </si>
+  <si>
+    <t>Subsecretaría para la Fuerzas Armadas</t>
+  </si>
+  <si>
+    <t>"Según el dictamen al que accedió The Clinic Online, los factores usados para definir los perfiles de 13 jefes de departamento fueron literalmente acomodados para que ganaran los que la autoridad quería. El subsecretario Alfonso Vargas envió a mediados de mes una reconsideración al organismo fiscalizador, con el fin de que se modifique el criterio." (The Clinic)</t>
+  </si>
+  <si>
+    <t>Arreglo de concursos públicos para favorecer a funcionarios de confianza</t>
+  </si>
+  <si>
+    <t>https://www.theclinic.cl/2013/02/05/contraloria-descubre-que-subsecretaria-de-ffaa-arreglo-concursos-publicos-para-favorecer-nombramientos-a-funcionarios-de-su-confianza/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="yyyy/m/d"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -503,7 +550,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -616,62 +663,115 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -682,26 +782,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -900,7 +1059,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -918,7 +1077,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -947,7 +1106,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -972,7 +1131,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -997,7 +1156,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1022,7 +1181,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1047,7 +1206,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1072,7 +1231,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1097,7 +1256,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1122,7 +1281,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1147,7 +1306,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1160,9 +1319,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1179,7 +1344,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1197,7 +1362,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1222,7 +1387,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1247,7 +1412,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1272,7 +1437,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1297,7 +1462,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1322,7 +1487,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1347,7 +1512,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1372,7 +1537,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1397,7 +1562,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1422,7 +1587,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1435,9 +1600,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1451,7 +1622,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1469,7 +1640,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1498,7 +1669,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1523,7 +1694,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1548,7 +1719,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1573,7 +1744,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1598,7 +1769,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1623,7 +1794,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1648,7 +1819,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1673,7 +1844,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1698,7 +1869,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1711,711 +1882,731 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:L24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.22656" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.82031" style="1" customWidth="1"/>
-    <col min="7" max="9" width="16.3516" style="1" customWidth="1"/>
-    <col min="10" max="10" width="35.0234" style="1" customWidth="1"/>
-    <col min="11" max="12" width="16.3516" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" style="1" customWidth="1"/>
+    <col min="7" max="9" width="16.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="60.1640625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="16.33203125" style="19" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="3">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s" s="3">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="L2" t="s" s="3">
+    <row r="2" spans="1:12" ht="98" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="6">
+        <v>45706</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" ht="152.25" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s" s="5">
+    <row r="3" spans="1:12" ht="70" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s" s="6">
+      <c r="E3" s="10">
+        <v>2026</v>
+      </c>
+      <c r="F3" s="20">
+        <v>45707</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="7">
+      <c r="H3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="98" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="10">
+        <v>2025</v>
+      </c>
+      <c r="F4" s="11">
+        <v>45706</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" spans="1:12" ht="84" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2025</v>
+      </c>
+      <c r="F5" s="11">
+        <v>45706</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="18"/>
+    </row>
+    <row r="6" spans="1:12" ht="56" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="10">
+        <v>2023</v>
+      </c>
+      <c r="F6" s="11">
+        <v>45706</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="98" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="10">
         <v>2026</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F7" s="11">
         <v>45706</v>
       </c>
-      <c r="G3" t="s" s="6">
+      <c r="G7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H3" t="s" s="6">
+      <c r="I7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="1:12" ht="70" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="10">
+        <v>2026</v>
+      </c>
+      <c r="F8" s="11">
+        <v>45706</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="1:12" ht="112" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="10">
+        <v>2026</v>
+      </c>
+      <c r="F9" s="11">
+        <v>45706</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="98" x14ac:dyDescent="0.15">
+      <c r="A10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="11">
+        <v>45706</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" s="18"/>
+    </row>
+    <row r="11" spans="1:12" ht="140" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="10">
+        <v>2026</v>
+      </c>
+      <c r="F11" s="11">
+        <v>45706</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="18"/>
+    </row>
+    <row r="12" spans="1:12" ht="84" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="10">
+        <v>2026</v>
+      </c>
+      <c r="F12" s="11">
+        <v>45706</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="42" x14ac:dyDescent="0.15">
+      <c r="A13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="10">
+        <v>2026</v>
+      </c>
+      <c r="F13" s="11">
+        <v>45706</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" spans="1:12" ht="84" x14ac:dyDescent="0.15">
+      <c r="A14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="10">
+        <v>2025</v>
+      </c>
+      <c r="F14" s="11">
+        <v>45706</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s" s="6">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="L3" t="s" s="6">
-        <v>22</v>
-      </c>
+      <c r="J14" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" s="18"/>
     </row>
-    <row r="4" ht="152.05" customHeight="1">
-      <c r="A4" t="s" s="9">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s" s="11">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s" s="11">
-        <v>16</v>
-      </c>
-      <c r="E4" s="12">
+    <row r="15" spans="1:12" ht="140" x14ac:dyDescent="0.15">
+      <c r="A15" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="10">
         <v>2026</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F15" s="11">
         <v>45706</v>
       </c>
-      <c r="G4" t="s" s="11">
+      <c r="G15" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="70" x14ac:dyDescent="0.15">
+      <c r="A16" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="10">
+        <v>2013</v>
+      </c>
+      <c r="F16" s="11">
+        <v>45707</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="H4" t="s" s="11">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s" s="11">
-        <v>24</v>
-      </c>
-      <c r="J4" t="s" s="11">
-        <v>25</v>
-      </c>
-      <c r="K4" t="s" s="11">
-        <v>26</v>
-      </c>
-      <c r="L4" s="14"/>
+      <c r="I16" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="L16" s="18"/>
     </row>
-    <row r="5" ht="140.05" customHeight="1">
-      <c r="A5" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s" s="10">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s" s="11">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s" s="11">
-        <v>29</v>
-      </c>
-      <c r="E5" s="12">
-        <v>2025</v>
-      </c>
-      <c r="F5" s="13">
-        <v>45706</v>
-      </c>
-      <c r="G5" s="14"/>
-      <c r="H5" t="s" s="11">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s" s="11">
-        <v>30</v>
-      </c>
-      <c r="J5" t="s" s="11">
-        <v>31</v>
-      </c>
-      <c r="K5" t="s" s="11">
-        <v>32</v>
-      </c>
-      <c r="L5" s="14"/>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
     </row>
-    <row r="6" ht="140.05" customHeight="1">
-      <c r="A6" t="s" s="9">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s" s="11">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s" s="11">
-        <v>29</v>
-      </c>
-      <c r="E6" s="12">
-        <v>2025</v>
-      </c>
-      <c r="F6" s="13">
-        <v>45706</v>
-      </c>
-      <c r="G6" t="s" s="11">
-        <v>35</v>
-      </c>
-      <c r="H6" t="s" s="11">
-        <v>18</v>
-      </c>
-      <c r="I6" t="s" s="11">
-        <v>36</v>
-      </c>
-      <c r="J6" t="s" s="11">
-        <v>37</v>
-      </c>
-      <c r="K6" t="s" s="11">
-        <v>38</v>
-      </c>
-      <c r="L6" s="14"/>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
     </row>
-    <row r="7" ht="140.05" customHeight="1">
-      <c r="A7" t="s" s="9">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s" s="11">
-        <v>41</v>
-      </c>
-      <c r="D7" t="s" s="11">
-        <v>42</v>
-      </c>
-      <c r="E7" s="12">
-        <v>2023</v>
-      </c>
-      <c r="F7" s="13">
-        <v>45706</v>
-      </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="J7" t="s" s="11">
-        <v>44</v>
-      </c>
-      <c r="K7" t="s" s="11">
-        <v>45</v>
-      </c>
-      <c r="L7" t="s" s="11">
-        <v>46</v>
-      </c>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
     </row>
-    <row r="8" ht="164.05" customHeight="1">
-      <c r="A8" t="s" s="9">
-        <v>47</v>
-      </c>
-      <c r="B8" t="s" s="10">
-        <v>48</v>
-      </c>
-      <c r="C8" t="s" s="11">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s" s="11">
-        <v>49</v>
-      </c>
-      <c r="E8" s="12">
-        <v>2026</v>
-      </c>
-      <c r="F8" s="13">
-        <v>45706</v>
-      </c>
-      <c r="G8" t="s" s="11">
-        <v>35</v>
-      </c>
-      <c r="H8" t="s" s="11">
-        <v>18</v>
-      </c>
-      <c r="I8" t="s" s="11">
-        <v>50</v>
-      </c>
-      <c r="J8" t="s" s="11">
-        <v>51</v>
-      </c>
-      <c r="K8" t="s" s="11">
-        <v>52</v>
-      </c>
-      <c r="L8" s="14"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
     </row>
-    <row r="9" ht="140.05" customHeight="1">
-      <c r="A9" t="s" s="9">
-        <v>53</v>
-      </c>
-      <c r="B9" t="s" s="10">
-        <v>54</v>
-      </c>
-      <c r="C9" t="s" s="11">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s" s="11">
-        <v>29</v>
-      </c>
-      <c r="E9" s="12">
-        <v>2026</v>
-      </c>
-      <c r="F9" s="13">
-        <v>45706</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" t="s" s="11">
-        <v>50</v>
-      </c>
-      <c r="J9" t="s" s="11">
-        <v>55</v>
-      </c>
-      <c r="K9" t="s" s="11">
-        <v>56</v>
-      </c>
-      <c r="L9" s="14"/>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
     </row>
-    <row r="10" ht="176.05" customHeight="1">
-      <c r="A10" t="s" s="9">
-        <v>57</v>
-      </c>
-      <c r="B10" t="s" s="10">
-        <v>58</v>
-      </c>
-      <c r="C10" t="s" s="11">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s" s="11">
-        <v>59</v>
-      </c>
-      <c r="E10" s="12">
-        <v>2026</v>
-      </c>
-      <c r="F10" s="13">
-        <v>45706</v>
-      </c>
-      <c r="G10" s="14"/>
-      <c r="H10" t="s" s="11">
-        <v>18</v>
-      </c>
-      <c r="I10" t="s" s="11">
-        <v>60</v>
-      </c>
-      <c r="J10" t="s" s="11">
-        <v>61</v>
-      </c>
-      <c r="K10" t="s" s="11">
-        <v>62</v>
-      </c>
-      <c r="L10" t="s" s="11">
-        <v>63</v>
-      </c>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
     </row>
-    <row r="11" ht="152.05" customHeight="1">
-      <c r="A11" t="s" s="9">
-        <v>64</v>
-      </c>
-      <c r="B11" t="s" s="10">
-        <v>65</v>
-      </c>
-      <c r="C11" t="s" s="11">
-        <v>66</v>
-      </c>
-      <c r="D11" t="s" s="11">
-        <v>67</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="13">
-        <v>45706</v>
-      </c>
-      <c r="G11" s="14"/>
-      <c r="H11" t="s" s="11">
-        <v>18</v>
-      </c>
-      <c r="I11" t="s" s="11">
-        <v>68</v>
-      </c>
-      <c r="J11" t="s" s="11">
-        <v>69</v>
-      </c>
-      <c r="K11" t="s" s="11">
-        <v>70</v>
-      </c>
-      <c r="L11" s="14"/>
-    </row>
-    <row r="12" ht="212.05" customHeight="1">
-      <c r="A12" t="s" s="9">
-        <v>71</v>
-      </c>
-      <c r="B12" t="s" s="10">
-        <v>72</v>
-      </c>
-      <c r="C12" t="s" s="11">
-        <v>66</v>
-      </c>
-      <c r="D12" t="s" s="11">
-        <v>73</v>
-      </c>
-      <c r="E12" s="12">
-        <v>2026</v>
-      </c>
-      <c r="F12" s="13">
-        <v>45706</v>
-      </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" t="s" s="11">
-        <v>74</v>
-      </c>
-      <c r="J12" t="s" s="11">
-        <v>75</v>
-      </c>
-      <c r="K12" t="s" s="11">
-        <v>76</v>
-      </c>
-      <c r="L12" s="14"/>
-    </row>
-    <row r="13" ht="152.05" customHeight="1">
-      <c r="A13" t="s" s="9">
-        <v>77</v>
-      </c>
-      <c r="B13" t="s" s="10">
-        <v>78</v>
-      </c>
-      <c r="C13" t="s" s="11">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s" s="11">
-        <v>79</v>
-      </c>
-      <c r="E13" s="12">
-        <v>2026</v>
-      </c>
-      <c r="F13" s="13">
-        <v>45706</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" t="s" s="11">
-        <v>18</v>
-      </c>
-      <c r="I13" t="s" s="11">
-        <v>50</v>
-      </c>
-      <c r="J13" t="s" s="11">
-        <v>80</v>
-      </c>
-      <c r="K13" t="s" s="11">
-        <v>81</v>
-      </c>
-      <c r="L13" t="s" s="11">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" ht="116.05" customHeight="1">
-      <c r="A14" t="s" s="9">
-        <v>83</v>
-      </c>
-      <c r="B14" t="s" s="10">
-        <v>84</v>
-      </c>
-      <c r="C14" t="s" s="11">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s" s="11">
-        <v>85</v>
-      </c>
-      <c r="E14" s="12">
-        <v>2026</v>
-      </c>
-      <c r="F14" s="13">
-        <v>45706</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="H14" t="s" s="11">
-        <v>18</v>
-      </c>
-      <c r="I14" t="s" s="11">
-        <v>30</v>
-      </c>
-      <c r="J14" t="s" s="11">
-        <v>86</v>
-      </c>
-      <c r="K14" t="s" s="11">
-        <v>87</v>
-      </c>
-      <c r="L14" s="14"/>
-    </row>
-    <row r="15" ht="128.05" customHeight="1">
-      <c r="A15" t="s" s="9">
-        <v>88</v>
-      </c>
-      <c r="B15" t="s" s="10">
-        <v>89</v>
-      </c>
-      <c r="C15" t="s" s="11">
-        <v>15</v>
-      </c>
-      <c r="D15" t="s" s="11">
-        <v>85</v>
-      </c>
-      <c r="E15" s="12">
-        <v>2025</v>
-      </c>
-      <c r="F15" s="13">
-        <v>45706</v>
-      </c>
-      <c r="G15" s="14"/>
-      <c r="H15" t="s" s="11">
-        <v>18</v>
-      </c>
-      <c r="I15" t="s" s="11">
-        <v>19</v>
-      </c>
-      <c r="J15" t="s" s="11">
-        <v>90</v>
-      </c>
-      <c r="K15" t="s" s="11">
-        <v>91</v>
-      </c>
-      <c r="L15" s="14"/>
-    </row>
-    <row r="16" ht="224.05" customHeight="1">
-      <c r="A16" t="s" s="9">
-        <v>92</v>
-      </c>
-      <c r="B16" t="s" s="10">
-        <v>93</v>
-      </c>
-      <c r="C16" t="s" s="11">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s" s="11">
-        <v>29</v>
-      </c>
-      <c r="E16" s="12">
-        <v>2026</v>
-      </c>
-      <c r="F16" s="13">
-        <v>45706</v>
-      </c>
-      <c r="G16" t="s" s="11">
-        <v>94</v>
-      </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" t="s" s="11">
-        <v>95</v>
-      </c>
-      <c r="K16" t="s" s="11">
-        <v>96</v>
-      </c>
-      <c r="L16" t="s" s="11">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" location="" tooltip="" display="https://www.fastcheck.cl/2026/02/17/en-su-declaracion-de-intereses-proximo-subsecretario-de-seguridad-ha-omitido-sociedades-durante-cinco-anos/"/>
-    <hyperlink ref="L3" r:id="rId2" location="" tooltip="" display="https://www.latercera.com/nacional/noticia/las-sociedades-que-unen-al-futuro-subsecretario-de-seguridad-con-imputados-del-caso-tragamonedas-y-casas-de-apuesta-online/"/>
-    <hyperlink ref="K4" r:id="rId3" location="" tooltip="" display="https://www.cnnchile.com/pais/revelan-vinculo-en-sociedad-de-futuro-subsecretario-de-seguridad-de-kast-con-imputado-por-caso-tragamonedas_20260211/"/>
-    <hyperlink ref="K5" r:id="rId4" location="" tooltip="" display="https://contrapoderchile.cl/registro-del-congreso-revela-que-diputada-camila-flores-oficio-al-conservador-de-bienes-raices-para-acelerar-tramite-a-favor-de-su-madre/"/>
-    <hyperlink ref="K6" r:id="rId5" location="" tooltip="" display="https://www.ciperchile.cl/2025/11/22/este-es-el-informe-del-os-7-que-transcribe-la-llamada-en-que-yaber-dijo-que-le-entrego-17-millones-al-diputado-araya-1/"/>
-    <hyperlink ref="K7" r:id="rId6" location="" tooltip="" display="https://www.cnnchile.com/pais/multa-de-mas-de-500-millones-a-exgerente-general-de-cencosud-compro-acciones-con-informacion-privilegiada_20260216/"/>
-    <hyperlink ref="L7" r:id="rId7" location="" tooltip="" display="https://elcontraste.cl/nacional/2026/02/16/corte-suprema-ratifica-multa-de-casi-600-millones-de-pesos-a-exgerente-general-de-cencosud-por-delito-economico/"/>
-    <hyperlink ref="K8" r:id="rId8" location="" tooltip="" display="https://www.t13.cl/noticia/politica/de-parcelas-puerto-varas-buin-hasta-colegio-estos-son-patrimonios-jose-antonio-9-2-2026"/>
-    <hyperlink ref="K9" r:id="rId9" location="" tooltip="" display="https://contrapoderchile.cl/mas-de-60-millones-anuales-registro-de-la-dipreca-revela-que-diputado-electo-enrique-bassaletti-recibe-doble-pension-como-exgeneral/"/>
-    <hyperlink ref="K10" r:id="rId10" location="" tooltip="" display="https://www.elmostrador.cl/noticias/sin-editar/2026/02/08/futuro-subsecretario-de-interior-defendio-residencia-para-microtraficante-colombiano/"/>
-    <hyperlink ref="L10" r:id="rId11" location="" tooltip="" display="https://reportea.cl/2026/02/06/las-causas-en-que-maximo-pavez-represento-a-migrantes-con-condenas-por-trafico-de-drogas-y-porte-ilicito-de-armas/"/>
-    <hyperlink ref="K11" r:id="rId12" location="" tooltip="" display="https://www.fastcheck.cl/2026/02/05/condenan-al-exjefe-de-atencion-primaria-de-pinera-por-fraude-con-las-residencias-sanitarias-durante-la-pandemia/"/>
-    <hyperlink ref="K12" r:id="rId13" location="" tooltip="" display="https://reportea.cl/2026/01/29/robo-fake-en-la-suprema-exministra-letelier-simulo-un-asalto-para-no-entregar-su-celular-en-causa-por-trafico-de-influencias/"/>
-    <hyperlink ref="K13" r:id="rId14" location="" tooltip="" display="https://www.theclinic.cl/2026/01/28/tenia-dos-sueldos-de-27-y-24-millones-y-ni-siquiera-estaba-titulado-contraloria-constata-irregularidad-en-contratacion-de-jefe-de-gabinete-de-la-reina/"/>
-    <hyperlink ref="K14" r:id="rId15" location="" tooltip="" display="https://www.ciperchile.cl/2016/02/10/la-lista-de-roberto-carrasco-el-otro-garganta-profunda-de-las-platas-negras-de-la-politica/"/>
-    <hyperlink ref="K15" r:id="rId16" location="" tooltip="" display="https://www.adnradio.cl/2026/01/24/ivan-poduje-enfrenta-demanda-del-cde-por-presuntamente-no-cumplir-requisitos-para-integrar-el-consejo-del-mop-en-2020/"/>
-    <hyperlink ref="K16" r:id="rId17" location="" tooltip="" display="https://www.fastcheck.cl/2026/01/26/asi-operan-los-perfiles-falsos-dedicados-a-defender-al-diputado-calisto-en-facebook/"/>
-    <hyperlink ref="L16" r:id="rId18" location="" tooltip="" display="https://www.fastcheck.cl/2026/01/25/pago-lo-que-sea-chats-revelan-que-diputado-calisto-ordeno-crear-cuentas-falsas-en-facebook-para-neutralizar-detractores/"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="K6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="L6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="K7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="K8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="K9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="L9" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="K10" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="K11" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="K12" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="K13" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="K14" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="K15" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="L15" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="L3" r:id="rId18" xr:uid="{5B230605-13B4-9445-94B3-5490DDEB5CD8}"/>
   </hyperlinks>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
